--- a/Vyzovskoe/2Сем/ООП/ЛАБА 1/Check.xlsx
+++ b/Vyzovskoe/2Сем/ООП/ЛАБА 1/Check.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kosty\OneDrive\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kosty\OneDrive\Documents\GitHub\Vyzovskoe\Vyzovskoe\2Сем\ООП\ЛАБА 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D72E85F-DA0B-4CB5-B206-8B1A35540C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11785B4-7D1D-49B3-A3E1-C584AB1C2425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="2715" windowWidth="20610" windowHeight="11460" xr2:uid="{BF39C09E-1334-4BFB-A92C-4B66D70ADC72}"/>
+    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15750" xr2:uid="{BF39C09E-1334-4BFB-A92C-4B66D70ADC72}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -45,6 +45,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000000000000000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -77,7 +80,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -395,20 +398,20 @@
   <dimension ref="B3:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C3">
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -417,7 +420,16 @@
         <v>0.70710678118654791</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C6" s="1">
+        <f>C4-C7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>1</v>
       </c>
